--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\eclipse-workspace\RLLGroup6\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5487BD-831D-4AC1-B823-220308A51956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1490040F-D418-46C0-A181-17C91C77E2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,70 +25,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>john@example.com</t>
-  </si>
-  <si>
-    <t>Hello, this is John.</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>alice@example.com</t>
-  </si>
-  <si>
-    <t>Hi, this is Alice.</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>bob@example.com</t>
-  </si>
-  <si>
-    <t>Message from Bob.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>karthick</t>
+  </si>
+  <si>
+    <t>karthick1@gmail.com</t>
+  </si>
+  <si>
+    <t>This Is My Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -107,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -115,80 +85,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,81 +375,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
-        <v>1234567890</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2">
+        <v>7397663547</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>9876543210</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5556667777</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="mailto:john@example.com" xr:uid="{4A51390B-9017-4801-854A-7A00B65D2C3E}"/>
-    <hyperlink ref="B3" r:id="rId2" display="mailto:alice@example.com" xr:uid="{2E3BB73E-7E51-489D-A49B-C75F7DD46240}"/>
-    <hyperlink ref="B4" r:id="rId3" display="mailto:bob@example.com" xr:uid="{D344B381-0577-4531-808D-7AD14004085B}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{AF69D17A-5B83-40C8-8FC3-1A29304ADEC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\eclipse-workspace\RLLGroup6\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1490040F-D418-46C0-A181-17C91C77E2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D580B6-7249-4ADE-955D-7F01E8A52FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContactUsData" sheetId="1" r:id="rId1"/>
+    <sheet name="Signin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -46,6 +47,18 @@
   </si>
   <si>
     <t>This Is My Data</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>agrawal.sakshi1102000@gmail.com</t>
+  </si>
+  <si>
+    <t>Sakshi@123</t>
   </si>
 </sst>
 </file>
@@ -90,9 +103,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -377,7 +393,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -422,4 +438,43 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB37E9E-F375-4335-AC6C-D5DE6B0D730A}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{62E5EACA-0245-4DF5-B12A-D1E4F7662D54}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>